--- a/ISRaD_data_files/Wang_1999.xlsx
+++ b/ISRaD_data_files/Wang_1999.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -3048,18 +3048,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -3344,13 +3339,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3400,7 +3395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3447,7 +3442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3485,7 +3480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3548,12 +3543,12 @@
       <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +3571,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3599,7 +3594,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3616,7 +3611,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3652,13 +3647,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3763,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3878,7 +3873,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3973,7 +3968,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3999,7 +3994,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4025,7 +4020,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4068,9 +4063,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4183,7 +4178,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4293,7 +4288,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4392,12 +4387,12 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:98">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4693,7 +4688,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:98">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4989,7 +4984,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5228,7 +5223,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:98">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5266,7 +5261,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:98">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5304,7 +5299,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:98">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5342,7 +5337,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:98">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5380,7 +5375,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:98">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5418,7 +5413,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:98">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5456,7 +5451,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:98">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5494,7 +5489,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:98">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5532,7 +5527,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:98">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -5570,7 +5565,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:98">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5608,7 +5603,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:98">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -5646,7 +5641,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:98">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:98">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -5722,7 +5717,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -5760,7 +5755,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5798,7 +5793,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -5836,7 +5831,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -5874,7 +5869,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -5912,7 +5907,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5971,9 +5966,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6059,7 +6054,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6142,7 +6137,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6204,13 +6199,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" ht="52">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6431,7 +6426,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6649,7 +6644,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6833,9 +6828,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6927,7 +6922,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7010,7 +7005,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7074,9 +7069,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>721</v>
       </c>
@@ -7210,7 +7205,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -7344,7 +7339,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44">
       <c r="G3" t="s">
         <v>767</v>
       </c>
@@ -7367,7 +7362,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
         <v>772</v>
       </c>
@@ -7501,7 +7496,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44">
       <c r="A5" t="s">
         <v>805</v>
       </c>
@@ -7614,7 +7609,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44">
       <c r="A6" t="s">
         <v>838</v>
       </c>
@@ -7715,7 +7710,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
         <v>864</v>
       </c>
@@ -7789,7 +7784,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44">
       <c r="A8" t="s">
         <v>885</v>
       </c>
@@ -7857,7 +7852,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44">
       <c r="A9" t="s">
         <v>902</v>
       </c>
@@ -7910,7 +7905,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44">
       <c r="A10" t="s">
         <v>918</v>
       </c>
@@ -7942,7 +7937,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44">
       <c r="B11" t="s">
         <v>928</v>
       </c>
@@ -7968,7 +7963,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44">
       <c r="H12" t="s">
         <v>935</v>
       </c>
@@ -7985,7 +7980,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44">
       <c r="U13" t="s">
         <v>940</v>
       </c>
@@ -7999,7 +7994,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44">
       <c r="U14" t="s">
         <v>944</v>
       </c>
@@ -8010,7 +8005,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44">
       <c r="U15" t="s">
         <v>947</v>
       </c>
@@ -8021,7 +8016,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44">
       <c r="U16" t="s">
         <v>950</v>
       </c>
@@ -8032,7 +8027,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="40:41">
       <c r="AN17" t="s">
         <v>953</v>
       </c>
@@ -8040,7 +8035,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="40:41">
       <c r="AN18" t="s">
         <v>955</v>
       </c>
@@ -8048,7 +8043,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="40:41">
       <c r="AN19" t="s">
         <v>957</v>
       </c>
@@ -8056,7 +8051,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="40:41">
       <c r="AN20" t="s">
         <v>959</v>
       </c>
@@ -8064,7 +8059,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="40:41">
       <c r="AN21" t="s">
         <v>961</v>
       </c>
